--- a/data/corona_statistics_excel.xlsx
+++ b/data/corona_statistics_excel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HelpCorona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29018862-811B-4354-93D0-071589FF9942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99AC458-9B74-4347-BEEE-CC96FBB83180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEF054F8-D13A-4A49-A1E7-6512FCB5C65C}"/>
+    <workbookView xWindow="17040" yWindow="1710" windowWidth="13785" windowHeight="11715" xr2:uid="{CEF054F8-D13A-4A49-A1E7-6512FCB5C65C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,17 +31,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>확진자 수</t>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년4월6일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적확진자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규확진자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외유입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,75 +133,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주</t>
+    <t>검역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 사망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,334 +502,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9145CD-E394-45CA-ACC6-28FE1AB267E1}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B3:B20)</f>
+        <v>10284</v>
+      </c>
+      <c r="C2">
+        <f>SUM(C3:C20)</f>
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <f>SUM(D3:D20)</f>
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <f>SUM(E3:E20)</f>
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <f>SUM(F3:F20)</f>
+        <v>3500</v>
+      </c>
+      <c r="G2">
+        <f>SUM(G3:G20)</f>
+        <v>6598</v>
+      </c>
+      <c r="H2">
+        <f>SUM(H3:H20)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3">
+        <v>563</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>412</v>
+      </c>
+      <c r="G3">
+        <v>151</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>91</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6781</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1787</v>
+      </c>
+      <c r="G5">
+        <v>4865</v>
+      </c>
+      <c r="H5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7134</v>
-      </c>
-      <c r="C2">
-        <v>6954</v>
-      </c>
-      <c r="D2">
-        <v>130</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>97</v>
-      </c>
-      <c r="C4">
-        <v>87</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5381</v>
-      </c>
-      <c r="C5">
-        <v>5328</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
         <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9">
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>580</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>360</v>
+      </c>
+      <c r="G11">
+        <v>213</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>136</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>102</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>141</v>
-      </c>
-      <c r="C11">
-        <v>124</v>
-      </c>
-      <c r="D11">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1316</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>349</v>
+      </c>
+      <c r="G17">
+        <v>922</v>
+      </c>
+      <c r="H17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>98</v>
-      </c>
-      <c r="C14">
-        <v>98</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>310</v>
+      </c>
+      <c r="C20">
         <v>7</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>308</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>1081</v>
-      </c>
-      <c r="C17">
-        <v>1027</v>
-      </c>
-      <c r="D17">
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>83</v>
-      </c>
-      <c r="C18">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="H20">
         <v>0</v>
       </c>
     </row>

--- a/data/corona_statistics_excel.xlsx
+++ b/data/corona_statistics_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HelpCorona\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99AC458-9B74-4347-BEEE-CC96FBB83180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BBA18-D2D1-4822-840D-CFD364FCD053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="1710" windowWidth="13785" windowHeight="11715" xr2:uid="{CEF054F8-D13A-4A49-A1E7-6512FCB5C65C}"/>
+    <workbookView xWindow="15750" yWindow="2340" windowWidth="13785" windowHeight="11715" xr2:uid="{CEF054F8-D13A-4A49-A1E7-6512FCB5C65C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020년4월6일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>누적확진자수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,10 @@
   </si>
   <si>
     <t>누적 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년4월8일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,58 +518,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <f>SUM(B3:B20)</f>
-        <v>10284</v>
+        <f t="shared" ref="B2:H2" si="0">SUM(B3:B20)</f>
+        <v>10384</v>
       </c>
       <c r="C2">
-        <f>SUM(C3:C20)</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="D2">
-        <f>SUM(D3:D20)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="E2">
-        <f>SUM(E3:E20)</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="F2">
-        <f>SUM(F3:F20)</f>
-        <v>3500</v>
+        <f t="shared" si="0"/>
+        <v>3408</v>
       </c>
       <c r="G2">
-        <f>SUM(G3:G20)</f>
-        <v>6598</v>
+        <f t="shared" si="0"/>
+        <v>6776</v>
       </c>
       <c r="H2">
-        <f>SUM(H3:H20)</f>
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -577,25 +577,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
       <c r="F3">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G3">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -629,25 +629,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6781</v>
+        <v>6803</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>1787</v>
+        <v>1705</v>
       </c>
       <c r="G5">
-        <v>4865</v>
+        <v>4961</v>
       </c>
       <c r="H5">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -655,19 +655,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>27</v>
@@ -710,19 +710,19 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8">
         <v>20</v>
-      </c>
-      <c r="G8">
-        <v>19</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G11">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -811,22 +811,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -863,22 +863,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -941,25 +941,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="G17">
-        <v>922</v>
+        <v>954</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -967,19 +967,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>80</v>
@@ -1016,25 +1016,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>0</v>
